--- a/Datos/Lista1.xlsx
+++ b/Datos/Lista1.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\MI CARPETA\TECBA\OTM106\OTM-106-2025\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\MI CARPETA\TECBA\OTM106\OTM-106-2025\Datos\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="18">
   <si>
     <t>Número</t>
   </si>
@@ -56,33 +56,12 @@
     <t>Mario Zambrana</t>
   </si>
   <si>
-    <t>3 de marzo de 2000</t>
-  </si>
-  <si>
-    <t>26 de abril de 1994</t>
-  </si>
-  <si>
-    <t>30 de enero de 2011</t>
-  </si>
-  <si>
-    <t>6 de octubre de 2010</t>
-  </si>
-  <si>
-    <t>7 de febrero de 2001</t>
-  </si>
-  <si>
-    <t>9 de noviembre de 1987</t>
-  </si>
-  <si>
     <t>Ariana Guzmán</t>
   </si>
   <si>
     <t>Mónica Vargas</t>
   </si>
   <si>
-    <t>1 de febrero de 2017</t>
-  </si>
-  <si>
     <t>Paola García</t>
   </si>
   <si>
@@ -92,16 +71,13 @@
     <t>Edwin Calle</t>
   </si>
   <si>
-    <t>8 de mayo de 1964</t>
-  </si>
-  <si>
-    <t>2 de diciembre de 1959</t>
-  </si>
-  <si>
     <t>Teresa Flores</t>
   </si>
   <si>
     <t>Daniela Gutierrez</t>
+  </si>
+  <si>
+    <t>Fecha actual</t>
   </si>
 </sst>
 </file>
@@ -145,7 +121,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -154,6 +130,10 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -436,10 +416,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E11"/>
+  <dimension ref="A1:F18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M11" sqref="M11"/>
+      <selection activeCell="E2" sqref="E2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -447,11 +427,12 @@
     <col min="1" max="1" width="7.6640625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="16.21875" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="20.5546875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="13.109375" customWidth="1"/>
-    <col min="5" max="5" width="9.33203125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="20.5546875" customWidth="1"/>
+    <col min="5" max="5" width="13.109375" customWidth="1"/>
+    <col min="6" max="6" width="9.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -462,13 +443,16 @@
         <v>2</v>
       </c>
       <c r="D1" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="E1" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="F1" s="2" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2" s="1">
         <v>1</v>
       </c>
@@ -479,165 +463,214 @@
         <v>41092</v>
       </c>
       <c r="D2" s="3">
-        <f ca="1">DATEDIF(C2,TODAY(),"y")</f>
+        <v>45755</v>
+      </c>
+      <c r="E2" s="5">
+        <f>INT((D2-C2)/365)</f>
         <v>12</v>
       </c>
-      <c r="E2" s="1" t="s">
+      <c r="F2" s="1" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A3" s="1">
         <v>2</v>
       </c>
       <c r="B3" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="C3" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="D3" s="1">
+      <c r="C3" s="3">
+        <v>36588</v>
+      </c>
+      <c r="D3" s="3">
+        <v>45755</v>
+      </c>
+      <c r="E3" s="5">
+        <f t="shared" ref="E3:E11" si="0">INT((D3-C3)/365)</f>
         <v>25</v>
       </c>
-      <c r="E3" s="1" t="s">
+      <c r="F3" s="1" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A4" s="1">
         <v>3</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="C4" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="D4" s="1">
+        <v>16</v>
+      </c>
+      <c r="C4" s="3">
+        <v>34450</v>
+      </c>
+      <c r="D4" s="3">
+        <v>45755</v>
+      </c>
+      <c r="E4" s="5">
+        <f t="shared" si="0"/>
         <v>30</v>
       </c>
-      <c r="E4" s="1" t="s">
+      <c r="F4" s="1" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A5" s="1">
         <v>4</v>
       </c>
       <c r="B5" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="C5" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="D5" s="1">
+      <c r="C5" s="3">
+        <v>40573</v>
+      </c>
+      <c r="D5" s="3">
+        <v>45755</v>
+      </c>
+      <c r="E5" s="5">
+        <f t="shared" si="0"/>
         <v>14</v>
       </c>
-      <c r="E5" s="1" t="s">
+      <c r="F5" s="1" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A6" s="1">
         <v>5</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="C6" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="D6" s="1">
-        <v>15</v>
-      </c>
-      <c r="E6" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C6" s="3">
+        <v>40457</v>
+      </c>
+      <c r="D6" s="3">
+        <v>45755</v>
+      </c>
+      <c r="E6" s="5">
+        <f t="shared" si="0"/>
+        <v>14</v>
+      </c>
+      <c r="F6" s="1" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A7" s="1">
         <v>6</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="C7" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="D7" s="1">
+        <v>12</v>
+      </c>
+      <c r="C7" s="3">
+        <v>36929</v>
+      </c>
+      <c r="D7" s="3">
+        <v>45755</v>
+      </c>
+      <c r="E7" s="5">
+        <f t="shared" si="0"/>
         <v>24</v>
       </c>
-      <c r="E7" s="1" t="s">
+      <c r="F7" s="1" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A8" s="1">
         <v>7</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="C8" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="D8" s="1">
+        <v>13</v>
+      </c>
+      <c r="C8" s="3">
+        <v>32090</v>
+      </c>
+      <c r="D8" s="3">
+        <v>45755</v>
+      </c>
+      <c r="E8" s="5">
+        <f t="shared" si="0"/>
         <v>37</v>
       </c>
-      <c r="E8" s="1" t="s">
+      <c r="F8" s="1" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A9" s="1">
         <v>8</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="C9" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="D9" s="1">
+        <v>14</v>
+      </c>
+      <c r="C9" s="3">
+        <v>23505</v>
+      </c>
+      <c r="D9" s="3">
+        <v>45755</v>
+      </c>
+      <c r="E9" s="5">
+        <f t="shared" si="0"/>
         <v>60</v>
       </c>
-      <c r="E9" s="1" t="s">
+      <c r="F9" s="1" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A10" s="1">
         <v>9</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="C10" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="D10" s="1">
-        <v>55</v>
-      </c>
-      <c r="E10" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="C10" s="3">
+        <v>21886</v>
+      </c>
+      <c r="D10" s="3">
+        <v>45755</v>
+      </c>
+      <c r="E10" s="5">
+        <f t="shared" si="0"/>
+        <v>65</v>
+      </c>
+      <c r="F10" s="1" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A11" s="1">
         <v>10</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="C11" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="D11" s="1">
+        <v>11</v>
+      </c>
+      <c r="C11" s="3">
+        <v>42767</v>
+      </c>
+      <c r="D11" s="3">
+        <v>45755</v>
+      </c>
+      <c r="E11" s="5">
+        <f t="shared" si="0"/>
         <v>8</v>
       </c>
-      <c r="E11" s="1" t="s">
+      <c r="F11" s="1" t="s">
         <v>6</v>
       </c>
+    </row>
+    <row r="17" spans="3:6" x14ac:dyDescent="0.3">
+      <c r="C17" s="4"/>
+      <c r="D17" s="4"/>
+      <c r="E17" s="3"/>
+      <c r="F17" s="4"/>
+    </row>
+    <row r="18" spans="3:6" x14ac:dyDescent="0.3">
+      <c r="C18" s="4"/>
+      <c r="D18" s="4"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Datos/Lista1.xlsx
+++ b/Datos/Lista1.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="19">
   <si>
     <t>Número</t>
   </si>
@@ -78,6 +78,9 @@
   </si>
   <si>
     <t>Fecha actual</t>
+  </si>
+  <si>
+    <t>Promedio</t>
   </si>
 </sst>
 </file>
@@ -121,7 +124,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -134,6 +137,12 @@
     </xf>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -419,7 +428,7 @@
   <dimension ref="A1:F18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E2" sqref="E2"/>
+      <selection activeCell="E12" sqref="E12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -662,6 +671,18 @@
         <v>6</v>
       </c>
     </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A12" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="B12" s="6"/>
+      <c r="C12" s="6"/>
+      <c r="D12" s="6"/>
+      <c r="E12" s="7">
+        <f>AVERAGE(E2:E11)</f>
+        <v>28.9</v>
+      </c>
+    </row>
     <row r="17" spans="3:6" x14ac:dyDescent="0.3">
       <c r="C17" s="4"/>
       <c r="D17" s="4"/>
@@ -673,6 +694,9 @@
       <c r="D18" s="4"/>
     </row>
   </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A12:D12"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
 </worksheet>

--- a/Datos/Lista1.xlsx
+++ b/Datos/Lista1.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="24">
   <si>
     <t>Número</t>
   </si>
@@ -81,6 +81,21 @@
   </si>
   <si>
     <t>Promedio</t>
+  </si>
+  <si>
+    <t>F</t>
+  </si>
+  <si>
+    <t>M</t>
+  </si>
+  <si>
+    <t>TOTAL M</t>
+  </si>
+  <si>
+    <t>TOTAL F</t>
+  </si>
+  <si>
+    <t>TOTAL</t>
   </si>
 </sst>
 </file>
@@ -124,7 +139,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -143,6 +158,9 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -425,10 +443,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F18"/>
+  <dimension ref="A1:H18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E12" sqref="E12"/>
+      <selection activeCell="J8" sqref="J8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -441,7 +459,7 @@
     <col min="6" max="6" width="9.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -460,8 +478,14 @@
       <c r="F1" s="2" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G1" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="H1" s="6" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A2" s="1">
         <v>1</v>
       </c>
@@ -472,17 +496,26 @@
         <v>41092</v>
       </c>
       <c r="D2" s="3">
-        <v>45755</v>
+        <f ca="1">TODAY()</f>
+        <v>45762</v>
       </c>
       <c r="E2" s="5">
-        <f>INT((D2-C2)/365)</f>
+        <f ca="1">INT((D2-C2)/365)</f>
         <v>12</v>
       </c>
       <c r="F2" s="1" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G2" s="1">
+        <f>IF(F2="Másculino",1,0)</f>
+        <v>1</v>
+      </c>
+      <c r="H2" s="1">
+        <f>IF(F2="Femenino",1,0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A3" s="1">
         <v>2</v>
       </c>
@@ -493,17 +526,26 @@
         <v>36588</v>
       </c>
       <c r="D3" s="3">
-        <v>45755</v>
+        <f t="shared" ref="D3:D11" ca="1" si="0">TODAY()</f>
+        <v>45762</v>
       </c>
       <c r="E3" s="5">
-        <f t="shared" ref="E3:E11" si="0">INT((D3-C3)/365)</f>
+        <f t="shared" ref="E3:E11" ca="1" si="1">INT((D3-C3)/365)</f>
         <v>25</v>
       </c>
       <c r="F3" s="1" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G3" s="1">
+        <f t="shared" ref="G3:G11" si="2">IF(F3="Másculino",1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="H3" s="1">
+        <f t="shared" ref="H3:H11" si="3">IF(F3="Femenino",1,0)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A4" s="1">
         <v>3</v>
       </c>
@@ -514,17 +556,26 @@
         <v>34450</v>
       </c>
       <c r="D4" s="3">
-        <v>45755</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>45762</v>
       </c>
       <c r="E4" s="5">
-        <f t="shared" si="0"/>
+        <f t="shared" ca="1" si="1"/>
         <v>30</v>
       </c>
       <c r="F4" s="1" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G4" s="1">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="H4" s="1">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A5" s="1">
         <v>4</v>
       </c>
@@ -535,17 +586,26 @@
         <v>40573</v>
       </c>
       <c r="D5" s="3">
-        <v>45755</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>45762</v>
       </c>
       <c r="E5" s="5">
-        <f t="shared" si="0"/>
+        <f t="shared" ca="1" si="1"/>
         <v>14</v>
       </c>
       <c r="F5" s="1" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G5" s="1">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="H5" s="1">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A6" s="1">
         <v>5</v>
       </c>
@@ -556,17 +616,26 @@
         <v>40457</v>
       </c>
       <c r="D6" s="3">
-        <v>45755</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>45762</v>
       </c>
       <c r="E6" s="5">
-        <f t="shared" si="0"/>
+        <f t="shared" ca="1" si="1"/>
         <v>14</v>
       </c>
       <c r="F6" s="1" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G6" s="1">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="H6" s="1">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A7" s="1">
         <v>6</v>
       </c>
@@ -577,17 +646,26 @@
         <v>36929</v>
       </c>
       <c r="D7" s="3">
-        <v>45755</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>45762</v>
       </c>
       <c r="E7" s="5">
-        <f t="shared" si="0"/>
+        <f t="shared" ca="1" si="1"/>
         <v>24</v>
       </c>
       <c r="F7" s="1" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G7" s="1">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="H7" s="1">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A8" s="1">
         <v>7</v>
       </c>
@@ -598,17 +676,26 @@
         <v>32090</v>
       </c>
       <c r="D8" s="3">
-        <v>45755</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>45762</v>
       </c>
       <c r="E8" s="5">
-        <f t="shared" si="0"/>
+        <f t="shared" ca="1" si="1"/>
         <v>37</v>
       </c>
       <c r="F8" s="1" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G8" s="1">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="H8" s="1">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A9" s="1">
         <v>8</v>
       </c>
@@ -619,17 +706,26 @@
         <v>23505</v>
       </c>
       <c r="D9" s="3">
-        <v>45755</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>45762</v>
       </c>
       <c r="E9" s="5">
-        <f t="shared" si="0"/>
+        <f t="shared" ca="1" si="1"/>
         <v>60</v>
       </c>
       <c r="F9" s="1" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G9" s="1">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="H9" s="1">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A10" s="1">
         <v>9</v>
       </c>
@@ -640,17 +736,26 @@
         <v>21886</v>
       </c>
       <c r="D10" s="3">
-        <v>45755</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>45762</v>
       </c>
       <c r="E10" s="5">
-        <f t="shared" si="0"/>
+        <f t="shared" ca="1" si="1"/>
         <v>65</v>
       </c>
       <c r="F10" s="1" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G10" s="1">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="H10" s="1">
+        <f>IF(F10="Femenino",1,0)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A11" s="1">
         <v>10</v>
       </c>
@@ -661,26 +766,62 @@
         <v>42767</v>
       </c>
       <c r="D11" s="3">
-        <v>45755</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>45762</v>
       </c>
       <c r="E11" s="5">
-        <f t="shared" si="0"/>
+        <f t="shared" ca="1" si="1"/>
         <v>8</v>
       </c>
       <c r="F11" s="1" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A12" s="6" t="s">
+      <c r="G11" s="1">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="H11" s="1">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A12" s="8" t="s">
         <v>18</v>
       </c>
-      <c r="B12" s="6"/>
-      <c r="C12" s="6"/>
-      <c r="D12" s="6"/>
+      <c r="B12" s="8"/>
+      <c r="C12" s="8"/>
+      <c r="D12" s="8"/>
       <c r="E12" s="7">
-        <f>AVERAGE(E2:E11)</f>
+        <f ca="1">AVERAGE(E2:E11)</f>
         <v>28.9</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="F13" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="G13" s="1">
+        <f>SUM(H2:H11)</f>
+        <v>6</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="F14" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="G14" s="1">
+        <f>SUM(G2:G11)</f>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="F15" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="G15" s="1">
+        <f>SUM(G13:G14)</f>
+        <v>10</v>
       </c>
     </row>
     <row r="17" spans="3:6" x14ac:dyDescent="0.3">

--- a/Datos/Lista1.xlsx
+++ b/Datos/Lista1.xlsx
@@ -446,7 +446,7 @@
   <dimension ref="A1:H18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J8" sqref="J8"/>
+      <selection activeCell="I14" sqref="I14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
